--- a/API.xlsx
+++ b/API.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choiwonjun/Desktop/workspace/contest/2022 CJ/CJ-Delivery-Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA7BA1E-C038-D44A-A22C-32AF506EC521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30AAEA1-D8C2-7B4C-9AC5-32237849FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="1" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="3" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="works" sheetId="2" r:id="rId2"/>
+    <sheet name="map" sheetId="3" r:id="rId3"/>
+    <sheet name="item" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -343,6 +345,180 @@
   </si>
   <si>
     <t>1u9aud9uad98u19jdiaus98du19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/map/position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 위경도 조회</t>
+  </si>
+  <si>
+    <t>배송지 위경도 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 서초구 양재동 222-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>터미널 정보의 터미널 주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliveryPK</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>배송물품의 고유Key</t>
+  </si>
+  <si>
+    <t>배송물품의 고유Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array(string)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>["37.46838","127.0361"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waypoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["37.5782114","126.8905855"],["37.54771","126.95468"],["37.5748934","126.8900691"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array(Array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경유지 위경도 배열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착지 위도, 경도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지 위도, 경도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 상세내역 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>보낼것</t>
+  </si>
+  <si>
+    <t>, 로 구분</t>
+  </si>
+  <si>
+    <t>받는것</t>
+  </si>
+  <si>
+    <t>receiver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>senderAddr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiverAddr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>completeTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receipt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품</t>
+  </si>
+  <si>
+    <t>7e92b741c4a5ae86318d4e0641470fa0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 동구 은어송로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 마포구 매봉산로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개가뭅니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,6 +551,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -398,11 +594,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821A2DCA-C0C7-554B-B933-26160A638F9D}">
-  <dimension ref="D9:G13"/>
+  <dimension ref="D9:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -801,6 +1006,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="4:7">
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -811,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD53461-2E64-A94A-A7F3-2763593D7F81}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1380,4 +1613,370 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F2CF10-5B5D-D44C-AF3E-D7DDEAA76FEB}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="5" max="5" width="63.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF627A-0305-2646-9B0C-D3CC9DB19EAA}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="5" max="5" width="63.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/API.xlsx
+++ b/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choiwonjun/Desktop/workspace/contest/2022 CJ/CJ-Delivery-Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30AAEA1-D8C2-7B4C-9AC5-32237849FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89F3AB7-BD55-6341-9F94-69757296F719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="3" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="144">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -519,6 +519,85 @@
   </si>
   <si>
     <t>개가뭅니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 고유Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 고유Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: 미배송, 1: 배송완료, 2: 수취거부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료 시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jinsangjin.tistory.com/156</t>
+  </si>
+  <si>
+    <t>iVBORw0KGgoAAAANSUhEUgAAAAoAAAAKCAYAAACNMs+9AAAAGElEQVQoU2NkYGD4z0AEYBxViC+UqB88AKk6CgERnGWPAAAAAElFTkSuQmCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송상세내역 업데이트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1743,16 +1822,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF627A-0305-2646-9B0C-D3CC9DB19EAA}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="63.42578125" customWidth="1"/>
+    <col min="5" max="5" width="80.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1844,7 +1924,9 @@
       <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
@@ -1859,7 +1941,9 @@
       <c r="E8" s="4">
         <v>6</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
@@ -1874,7 +1958,9 @@
       <c r="E9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
@@ -1887,6 +1973,9 @@
       <c r="E10" t="s">
         <v>120</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" t="s">
@@ -1898,6 +1987,9 @@
       <c r="E11" t="s">
         <v>119</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" t="s">
@@ -1909,6 +2001,9 @@
       <c r="E12" t="s">
         <v>121</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
@@ -1920,6 +2015,9 @@
       <c r="E13" t="s">
         <v>122</v>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
@@ -1928,8 +2026,11 @@
       <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1942,6 +2043,9 @@
       <c r="E15" t="s">
         <v>123</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
@@ -1950,29 +2054,377 @@
       <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="3:4">
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="C17" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="3:4">
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="C18" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="3:4">
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="C19" t="s">
         <v>116</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="4">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/API.xlsx
+++ b/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choiwonjun/Desktop/workspace/contest/2022 CJ/CJ-Delivery-Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89F3AB7-BD55-6341-9F94-69757296F719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35EA75E-41C5-C449-AD86-3926E90CC916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="3" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="1" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="153">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -598,6 +598,42 @@
   </si>
   <si>
     <t>배송상세내역 업데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴworkState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 상태 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 상세내역 업데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: 모집신청 or 모집확정, 1: 모집취소, 2: 배송완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴcomment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집취소 사유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022. 7. 29. 오후 4:06:32 모집 취소하였음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workState가 1이 아닐땐 항상 NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -651,12 +687,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -673,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,6 +729,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821A2DCA-C0C7-554B-B933-26160A638F9D}">
-  <dimension ref="D9:G15"/>
+  <dimension ref="D9:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
@@ -1113,6 +1158,20 @@
         <v>98</v>
       </c>
     </row>
+    <row r="16" spans="4:7">
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD53461-2E64-A94A-A7F3-2763593D7F81}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1132,6 +1191,7 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1454,7 +1514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1465,7 +1525,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="C35" t="s">
         <v>57</v>
       </c>
@@ -1479,7 +1539,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="C36" t="s">
         <v>58</v>
       </c>
@@ -1493,7 +1553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="C37" t="s">
         <v>60</v>
       </c>
@@ -1507,7 +1567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="C38" t="s">
         <v>59</v>
       </c>
@@ -1521,7 +1581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="C39" t="s">
         <v>61</v>
       </c>
@@ -1535,7 +1595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="C40" t="s">
         <v>62</v>
       </c>
@@ -1549,92 +1609,109 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+    <row r="41" spans="1:7">
+      <c r="C41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>24</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="C45" t="s">
+    <row r="46" spans="1:7">
+      <c r="C46" t="s">
         <v>12</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>13</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>65</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>28</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
         <v>26</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>55</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
-      <c r="C49" t="s">
+    <row r="50" spans="1:6">
+      <c r="C50" t="s">
         <v>53</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>28</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>5</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
-      <c r="C50" t="s">
+    <row r="51" spans="1:6">
+      <c r="C51" t="s">
         <v>67</v>
-      </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="C51" t="s">
-        <v>68</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
@@ -1643,40 +1720,40 @@
         <v>76</v>
       </c>
       <c r="F51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="3:6">
-      <c r="C52" t="s">
+    <row r="53" spans="1:6">
+      <c r="C53" t="s">
         <v>69</v>
       </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
         <v>30</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="3:6">
-      <c r="C53" t="s">
+    <row r="54" spans="1:6">
+      <c r="C54" t="s">
         <v>70</v>
-      </c>
-      <c r="D53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" t="s">
-        <v>54</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
@@ -1685,6 +1762,20 @@
         <v>75</v>
       </c>
       <c r="F54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1824,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF627A-0305-2646-9B0C-D3CC9DB19EAA}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
